--- a/Decider OM Resources/dataset/decider-without-space.xlsx
+++ b/Decider OM Resources/dataset/decider-without-space.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Decider OM Resources/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AC1F25-A1FF-2848-822F-40076163EE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD54689-CD73-3640-ABA3-DE31E0F14A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1100" windowWidth="28040" windowHeight="16380" xr2:uid="{BEB73D47-662B-3A4B-B188-F2412275E74F}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{BEB73D47-662B-3A4B-B188-F2412275E74F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,7 +244,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -533,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B19B6D-52DA-5A4D-A5FE-F851384D079E}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -942,7 +941,7 @@
       <c r="A111" t="s">
         <v>45</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>46</v>
       </c>
     </row>
@@ -950,7 +949,7 @@
       <c r="A112" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>46</v>
       </c>
     </row>
@@ -958,7 +957,7 @@
       <c r="A113" t="s">
         <v>45</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>46</v>
       </c>
     </row>
